--- a/interface.xlsx
+++ b/interface.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,7 +36,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GET</t>
+    <t>{
+"limit":10,
+"requestId":"bce3bb51-4ea6-4e8b-8268-584a4b2cc766",
+"userId":"80115209734401911"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -44,89 +48,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.httpbin.org/get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.httpbin.org/post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FF98C379"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"key1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FFABB2BF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FF98C379"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"values1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FFABB2BF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FF98C379"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"key2"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FFABB2BF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FF98C379"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"value2"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FFABB2BF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
+    <t>code=200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://116.62.33.250:8100/feed/notification/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"limit":10,
+"requestId":"bce3bb51-4ea6-4e8b-8268-584a4b2cc766",
+"userId":"80115209734401911"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,16 +84,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13.5"/>
-      <color rgb="FFABB2BF"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="13.5"/>
-      <color rgb="FF98C379"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -259,10 +189,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -273,9 +204,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -580,16 +521,16 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="43.75" customWidth="1"/>
-    <col min="3" max="3" width="38.5" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="27.75" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="60.125" customWidth="1"/>
+    <col min="3" max="3" width="54.5" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="43.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -609,35 +550,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+    <row r="2" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
@@ -663,9 +608,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>